--- a/Project_ToDos_MilitaryIdle.xlsx
+++ b/Project_ToDos_MilitaryIdle.xlsx
@@ -16,17 +16,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1698340536" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1698340536" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1698340536" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1698340536"/>
+      <pm:revision xmlns:pm="smNativeData" day="1699379295" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1699379295" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1699379295" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1699379295"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Title:</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>Küche/Klo</t>
-  </si>
-  <si>
-    <t>current Bug</t>
   </si>
   <si>
     <t>UI FirstOpen on CLick on Ship</t>
@@ -299,7 +296,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1698340536" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699379295" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -314,7 +311,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1698340536" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699379295" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -330,7 +327,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1698340536" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699379295" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -352,7 +349,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -378,7 +375,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -389,7 +386,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -405,11 +402,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF018001"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="50" fgClr="0000FF00" bgLvl="50" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -431,7 +428,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536"/>
+          <pm:border xmlns:pm="smNativeData" id="1699379295"/>
         </ext>
       </extLst>
     </border>
@@ -450,7 +447,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536"/>
+          <pm:border xmlns:pm="smNativeData" id="1699379295"/>
         </ext>
       </extLst>
     </border>
@@ -469,7 +466,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536">
+          <pm:border xmlns:pm="smNativeData" id="1699379295">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -491,7 +488,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536">
+          <pm:border xmlns:pm="smNativeData" id="1699379295">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -512,7 +509,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536">
+          <pm:border xmlns:pm="smNativeData" id="1699379295">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -534,7 +531,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536">
+          <pm:border xmlns:pm="smNativeData" id="1699379295">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -555,7 +552,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536">
+          <pm:border xmlns:pm="smNativeData" id="1699379295">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -576,7 +573,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536"/>
+          <pm:border xmlns:pm="smNativeData" id="1699379295"/>
         </ext>
       </extLst>
     </border>
@@ -595,7 +592,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536">
+          <pm:border xmlns:pm="smNativeData" id="1699379295">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -616,7 +613,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536">
+          <pm:border xmlns:pm="smNativeData" id="1699379295">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -638,7 +635,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536">
+          <pm:border xmlns:pm="smNativeData" id="1699379295">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -659,7 +656,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536">
+          <pm:border xmlns:pm="smNativeData" id="1699379295">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -681,7 +678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698340536"/>
+          <pm:border xmlns:pm="smNativeData" id="1699379295"/>
         </ext>
       </extLst>
     </border>
@@ -715,9 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -753,7 +748,7 @@
         <color rgb="FF006100"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1698340536" fgClr="006100">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699379295" fgClr="006100">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -766,7 +761,7 @@
           <bgColor rgb="FFC6EFCE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -777,7 +772,7 @@
         <color rgb="FF9C0006"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1698340536" fgClr="9C0006">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699379295" fgClr="9C0006">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -790,7 +785,7 @@
           <bgColor rgb="FFFFC7CE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -801,7 +796,7 @@
         <color rgb="FF006100"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1698340536" fgClr="006100">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699379295" fgClr="006100">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -814,7 +809,7 @@
           <bgColor rgb="FFC6EFCE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -825,7 +820,7 @@
         <color rgb="FF9C0006"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1698340536" fgClr="9C0006">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699379295" fgClr="9C0006">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -838,7 +833,7 @@
           <bgColor rgb="FFFFC7CE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -849,7 +844,7 @@
         <color rgb="FF006100"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1698340536" fgClr="006100">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699379295" fgClr="006100">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -862,7 +857,7 @@
           <bgColor rgb="FFC6EFCE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -873,7 +868,7 @@
         <color rgb="FF9C0006"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1698340536" fgClr="9C0006">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699379295" fgClr="9C0006">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -886,7 +881,7 @@
           <bgColor rgb="FFFFC7CE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1698340536" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1699379295" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -896,10 +891,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1698340536" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1699379295" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1698340536" count="6">
+      <pm:colors xmlns:pm="smNativeData" id="1699379295" count="6">
         <pm:color name="Farbe 24" rgb="FFE697"/>
         <pm:color name="Farbe 25" rgb="BDD7EE"/>
         <pm:color name="Farbe 26" rgb="9C0006"/>
@@ -1361,7 +1356,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1698340536" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699379295" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1370,16 +1365,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1698340536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1698340536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698340536" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698340536" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1699379295" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699379295" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699379295" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699379295" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1698340536" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699379295" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1524,7 +1519,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1698340536" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699379295" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1533,16 +1528,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1698340536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1698340536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698340536" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698340536" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1699379295" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699379295" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699379295" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699379295" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1698340536" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699379295" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1613,340 +1608,321 @@
     </row>
     <row r="8" spans="3:20">
       <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="10"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
+      <c r="O8" s="10"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="11"/>
+      <c r="T8" s="10"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="9"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="12"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>57</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>59</v>
       </c>
       <c r="R9" s="9"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="3:20">
       <c r="C10" s="9"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="12"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12"/>
     </row>
     <row r="11" spans="3:20">
       <c r="C11" s="9"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="9"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="13"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="9"/>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="12" t="n">
         <v>8</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>65</v>
       </c>
       <c r="M12" s="9"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="13"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="9"/>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>68</v>
       </c>
       <c r="M13" s="9"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="13"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="9"/>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="13"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="3:20">
       <c r="C15" s="9"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="13"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="12"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="9"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="13"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="13"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="12"/>
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="9"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="13"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="3:20">
       <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="13"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="9"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="13"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="12"/>
     </row>
     <row r="21" spans="3:20">
       <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="10"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
+      <c r="O21" s="10"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="11"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" spans="3:20">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f>3*6*4</f>
         <v>72</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="R22" s="15" t="s">
+      <c r="O22" s="10"/>
+      <c r="R22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="11"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="9"/>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="10" t="n">
         <v>8</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="10"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="10"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="11"/>
+      <c r="T23" s="10"/>
     </row>
     <row r="24" spans="3:20">
       <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="10"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="10"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
+      <c r="O24" s="10"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="11"/>
+      <c r="T24" s="10"/>
     </row>
     <row r="25" spans="3:20">
       <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="10"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="10"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11"/>
+      <c r="O25" s="10"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="11"/>
+      <c r="T25" s="10"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="18"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="18"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="17"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1698340536" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699379295" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1955,16 +1931,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1698340536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1698340536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698340536" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698340536" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1699379295" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699379295" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699379295" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699379295" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1698340536" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699379295" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1978,51 +1954,70 @@
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
+  <cols>
+    <col min="1" max="1" width="25.401786" customWidth="1"/>
+    <col min="3" max="3" width="15.910714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1698340536" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699379295" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2031,16 +2026,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1698340536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1698340536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698340536" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698340536" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1699379295" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699379295" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699379295" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699379295" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1698340536" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699379295" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
